--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,75 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>questions</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
-  <si>
-    <t>How are you?</t>
-  </si>
-  <si>
-    <t>I'm great</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Sup, Yo</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,18 +45,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -167,7 +144,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -202,7 +178,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -237,16 +212,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -368,99 +347,206 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Eddie</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tess</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>How are you?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>I'm fine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>I'm good, how are you?</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hey</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hey Joy</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>I'm good too</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Glad to hear that :)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,37 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="560" yWindow="640" windowWidth="25040" windowHeight="14420"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Tess</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>I'm good, how are you?</t>
+  </si>
+  <si>
+    <t>I'm fine</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>Hey</t>
+  </si>
+  <si>
+    <t>I'm good too</t>
+  </si>
+  <si>
+    <t>Glad to hear that :)</t>
+  </si>
+  <si>
+    <t>Hey Joy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +125,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,200 +441,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Questions</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Joe</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Eddie</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Alex</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tess</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Josh</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>How are you?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>I'm fine</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>I'm good, how are you?</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Yo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Hey</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Hey Joy</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Hi</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>I'm good too</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Glad to hear that :)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,116 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="640" windowWidth="25040" windowHeight="14420"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Tess</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>How are you?</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>I'm good, how are you?</t>
-  </si>
-  <si>
-    <t>I'm fine</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>Yo</t>
-  </si>
-  <si>
-    <t>Hey</t>
-  </si>
-  <si>
-    <t>I'm good too</t>
-  </si>
-  <si>
-    <t>Glad to hear that :)</t>
-  </si>
-  <si>
-    <t>Hey Joy</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,35 +46,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -441,122 +353,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Joe</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Eddie</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Alex</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tess</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Josh</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Alice</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>How are you?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>I'm fine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>I'm good, how are you?</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Hey</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Hey Joy</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Hi</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>I'm good too</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nice nice</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Cool</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Glad to hear that :)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>How's it going?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Great</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>Hello</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>Hello how are u</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>What's up man</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -735,6 +735,1428 @@
         </is>
       </c>
       <c r="L7" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>How's your day?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fantastic</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>What do you want to do?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Just chilling and talking to you</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Where are you from?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>where are you from?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Do you eat breakfast?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes, sir.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Im good and u</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Im good </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>What do u want to do today</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lets go to the park</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ok lets go</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>While we are there do u want to pay basketball</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Yeah sure</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hey</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>What's up</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nothing really, that's why I'm talking to a computer</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>That's degrading of you to say</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>I didn't give you emotions</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>You're not wrong, though I understand what a snide remark is</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Don't worry, I talk to humans this way</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>I feel disgusted to be treated like a human</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Goodbye</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Don't talk to me again please</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nothing much. I was gonna go to the store.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>You wanna buy me something?</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>You got the money for it?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>See about that...</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Tough. Give me the money and i'll get you something.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bro c'mon i'll pay you back.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Nah i'm good.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>You fake bro.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Oh really? Im fake? Wassup then.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>You got my weed bro?</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nah fam, I gave it to my mom</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Damn bro thats tough</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>You got that cart tho?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nah, felix do you got it?</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>default</t>
         </is>
